--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:40:28+00:00</t>
+    <t>2022-08-05T14:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -548,7 +548,7 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation.</t>
+この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.

--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T14:56:31+00:00</t>
+    <t>2022-08-06T09:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
